--- a/results/0.xlsx
+++ b/results/0.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8528261184692383</v>
+        <v>0.7092099189758301</v>
       </c>
     </row>
   </sheetData>

--- a/results/0.xlsx
+++ b/results/0.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7004048824310303</v>
+        <v>38.22121500968933</v>
       </c>
     </row>
   </sheetData>
